--- a/testing results/London-Test-Data.xlsx
+++ b/testing results/London-Test-Data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">Wind Speed</t>
   </si>
@@ -28,13 +28,10 @@
     <t xml:space="preserve">Pressure </t>
   </si>
   <si>
-    <t xml:space="preserve">Wind Direction</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pressure Gradient</t>
   </si>
   <si>
-    <t xml:space="preserve">Wind Gradient</t>
+    <t xml:space="preserve">Dew Point</t>
   </si>
 </sst>
 </file>
@@ -44,12 +41,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -65,6 +61,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,11 +116,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -139,21 +141,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.72"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -168,10 +162,6 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -180,15 +170,12 @@
       <c r="B2" s="2" t="n">
         <v>1017.1</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>242</v>
-      </c>
-      <c r="D2" s="1" t="n">
+      <c r="C2" s="1" t="n">
         <f aca="false">INT(B3-B2)</f>
         <v>-2</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>2</v>
+      <c r="D2" s="2" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -198,15 +185,12 @@
       <c r="B3" s="2" t="n">
         <v>1015.3</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>176</v>
-      </c>
-      <c r="D3" s="1" t="n">
+      <c r="C3" s="1" t="n">
         <f aca="false">INT(B4-B3)</f>
         <v>-4</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>2</v>
+      <c r="D3" s="2" t="n">
+        <v>12.7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -216,15 +200,12 @@
       <c r="B4" s="2" t="n">
         <v>1011.5</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>171</v>
-      </c>
-      <c r="D4" s="1" t="n">
+      <c r="C4" s="1" t="n">
         <f aca="false">INT(B5-B4)</f>
         <v>-5</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <v>4</v>
+      <c r="D4" s="2" t="n">
+        <v>14.7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -234,15 +215,12 @@
       <c r="B5" s="2" t="n">
         <v>1007.3</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>119</v>
-      </c>
-      <c r="D5" s="1" t="n">
+      <c r="C5" s="1" t="n">
         <f aca="false">INT(B6-B5)</f>
         <v>-4</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <v>5</v>
+      <c r="D5" s="2" t="n">
+        <v>13.9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -252,15 +230,12 @@
       <c r="B6" s="2" t="n">
         <v>1004.2</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>63</v>
-      </c>
-      <c r="D6" s="1" t="n">
+      <c r="C6" s="1" t="n">
         <f aca="false">INT(B7-B6)</f>
         <v>-5</v>
       </c>
-      <c r="E6" s="1" t="n">
-        <v>4</v>
+      <c r="D6" s="2" t="n">
+        <v>11.6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -270,15 +245,12 @@
       <c r="B7" s="2" t="n">
         <v>999.4</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>172</v>
-      </c>
-      <c r="D7" s="1" t="n">
+      <c r="C7" s="1" t="n">
         <f aca="false">INT(B8-B7)</f>
         <v>11</v>
       </c>
-      <c r="E7" s="1" t="n">
-        <v>6</v>
+      <c r="D7" s="2" t="n">
+        <v>12.1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -288,15 +260,12 @@
       <c r="B8" s="2" t="n">
         <v>1011.3</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>133</v>
-      </c>
-      <c r="D8" s="1" t="n">
+      <c r="C8" s="1" t="n">
         <f aca="false">INT(B9-B8)</f>
         <v>7</v>
       </c>
-      <c r="E8" s="1" t="n">
-        <v>5</v>
+      <c r="D8" s="2" t="n">
+        <v>12.3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -306,15 +275,12 @@
       <c r="B9" s="2" t="n">
         <v>1018.9</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>177</v>
-      </c>
-      <c r="D9" s="1" t="n">
+      <c r="C9" s="1" t="n">
         <f aca="false">INT(B10-B9)</f>
         <v>1</v>
       </c>
-      <c r="E9" s="1" t="n">
-        <v>3</v>
+      <c r="D9" s="2" t="n">
+        <v>13.1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -324,15 +290,12 @@
       <c r="B10" s="2" t="n">
         <v>1019.9</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>165</v>
-      </c>
-      <c r="D10" s="1" t="n">
+      <c r="C10" s="1" t="n">
         <f aca="false">INT(B11-B10)</f>
         <v>-4</v>
       </c>
-      <c r="E10" s="1" t="n">
-        <v>4</v>
+      <c r="D10" s="2" t="n">
+        <v>13.3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -342,15 +305,12 @@
       <c r="B11" s="2" t="n">
         <v>1016</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>136</v>
-      </c>
-      <c r="D11" s="1" t="n">
+      <c r="C11" s="1" t="n">
         <f aca="false">INT(B12-B11)</f>
         <v>-2</v>
       </c>
-      <c r="E11" s="1" t="n">
-        <v>2</v>
+      <c r="D11" s="2" t="n">
+        <v>11.5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -360,15 +320,12 @@
       <c r="B12" s="2" t="n">
         <v>1014.6</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>217</v>
-      </c>
-      <c r="D12" s="1" t="n">
+      <c r="C12" s="1" t="n">
         <f aca="false">INT(B13-B12)</f>
         <v>-4</v>
       </c>
-      <c r="E12" s="1" t="n">
-        <v>3</v>
+      <c r="D12" s="2" t="n">
+        <v>12.7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -378,15 +335,12 @@
       <c r="B13" s="2" t="n">
         <v>1010.6</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>234</v>
-      </c>
-      <c r="D13" s="1" t="n">
+      <c r="C13" s="1" t="n">
         <f aca="false">INT(B14-B13)</f>
         <v>3</v>
       </c>
-      <c r="E13" s="1" t="n">
-        <v>2</v>
+      <c r="D13" s="2" t="n">
+        <v>14.5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -396,15 +350,12 @@
       <c r="B14" s="2" t="n">
         <v>1013.9</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>247</v>
-      </c>
-      <c r="D14" s="1" t="n">
+      <c r="C14" s="1" t="n">
         <f aca="false">INT(B15-B14)</f>
         <v>3</v>
       </c>
-      <c r="E14" s="1" t="n">
-        <v>2</v>
+      <c r="D14" s="2" t="n">
+        <v>14.6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -414,15 +365,12 @@
       <c r="B15" s="2" t="n">
         <v>1017.2</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>252</v>
-      </c>
-      <c r="D15" s="1" t="n">
+      <c r="C15" s="1" t="n">
         <f aca="false">INT(B16-B15)</f>
         <v>4</v>
       </c>
-      <c r="E15" s="1" t="n">
-        <v>2</v>
+      <c r="D15" s="2" t="n">
+        <v>13.7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -432,15 +380,12 @@
       <c r="B16" s="2" t="n">
         <v>1021.6</v>
       </c>
-      <c r="C16" s="0" t="n">
-        <v>206</v>
-      </c>
-      <c r="D16" s="1" t="n">
+      <c r="C16" s="1" t="n">
         <f aca="false">INT(B17-B16)</f>
         <v>4</v>
       </c>
-      <c r="E16" s="1" t="n">
-        <v>4</v>
+      <c r="D16" s="2" t="n">
+        <v>13.2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -450,15 +395,12 @@
       <c r="B17" s="2" t="n">
         <v>1026.1</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>232</v>
-      </c>
-      <c r="D17" s="1" t="n">
+      <c r="C17" s="1" t="n">
         <f aca="false">INT(B18-B17)</f>
         <v>1</v>
       </c>
-      <c r="E17" s="1" t="n">
-        <v>3</v>
+      <c r="D17" s="2" t="n">
+        <v>11.9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -468,14 +410,11 @@
       <c r="B18" s="2" t="n">
         <v>1027.7</v>
       </c>
-      <c r="C18" s="0" t="n">
-        <v>142</v>
-      </c>
-      <c r="D18" s="1" t="n">
+      <c r="C18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E18" s="1" t="n">
-        <v>3</v>
+      <c r="D18" s="2" t="n">
+        <v>13.6</v>
       </c>
     </row>
   </sheetData>
